--- a/encoding.xlsx
+++ b/encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxuchee/Documents/GitHub/MTRX3700-A1-Group17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CE169A-7CDE-0B44-B31E-18EA54452B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E74FE-8589-A749-A0A5-91DAF56B13C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1040" windowWidth="20560" windowHeight="16940" xr2:uid="{D98E0EBF-70B7-CA4B-8BF4-19EE04BDA7B8}"/>
+    <workbookView xWindow="16460" yWindow="760" windowWidth="20560" windowHeight="16940" xr2:uid="{D98E0EBF-70B7-CA4B-8BF4-19EE04BDA7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
   <si>
     <t>Cardinal direction</t>
   </si>
   <si>
-    <t>Torque</t>
-  </si>
-  <si>
     <t>Left reverse [17:14]</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>Speed (integer)</t>
+  </si>
+  <si>
+    <t>Torque (binary)</t>
+  </si>
+  <si>
+    <t>Direction (binary)</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +149,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -241,17 +268,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -262,12 +325,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,374 +658,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E274176-FEEE-704C-8554-71C67B448C83}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B5 B6:B17 C2:F2 C5:F6 C9:F10 C14:F14" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:C5 C6:C17 D2:G2 D5:G6 D9:G10 D14:G14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/encoding.xlsx
+++ b/encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxuchee/Documents/GitHub/MTRX3700-A1-Group17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E74FE-8589-A749-A0A5-91DAF56B13C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0DF05-BE12-8D46-930C-AF18B72246FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="760" windowWidth="20560" windowHeight="16940" xr2:uid="{D98E0EBF-70B7-CA4B-8BF4-19EE04BDA7B8}"/>
+    <workbookView xWindow="9680" yWindow="760" windowWidth="20560" windowHeight="16940" xr2:uid="{D98E0EBF-70B7-CA4B-8BF4-19EE04BDA7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="23">
   <si>
     <t>Cardinal direction</t>
   </si>
@@ -95,13 +95,16 @@
     <t>Note: 5 different levels: empty (0000), quarter (0010), half(1000), three quarter(1100), full(1111)</t>
   </si>
   <si>
-    <t>Speed (integer)</t>
-  </si>
-  <si>
     <t>Torque (binary)</t>
   </si>
   <si>
     <t>Direction (binary)</t>
+  </si>
+  <si>
+    <t>Left speed (integer)</t>
+  </si>
+  <si>
+    <t>Right speed (integer)</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -272,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,34 +283,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -331,19 +319,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E274176-FEEE-704C-8554-71C67B448C83}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,33 +663,36 @@
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -716,12 +709,13 @@
       <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,12 +732,13 @@
       <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,12 +755,13 @@
       <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,12 +778,13 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -803,12 +800,13 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -824,12 +822,13 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -845,12 +844,13 @@
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -866,12 +866,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,12 +889,13 @@
       <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,12 +912,13 @@
       <c r="F11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,12 +935,13 @@
       <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,12 +958,13 @@
       <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -975,12 +980,13 @@
       <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -996,12 +1002,13 @@
       <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1017,12 +1024,13 @@
       <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="3"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1039,12 +1047,13 @@
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
